--- a/resources/silkworm-faq.xlsx
+++ b/resources/silkworm-faq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27648" windowHeight="11592"/>
+    <workbookView windowWidth="26841" windowHeight="11592"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="521">
   <si>
     <t>序号</t>
   </si>
@@ -37,6 +37,9 @@
     <t>回  答</t>
   </si>
   <si>
+    <t>资源类别</t>
+  </si>
+  <si>
     <t>孵化</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>蚕卵感光后会发育得更整齐，蚕卵放室内，不可放阳光下直接照射。</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>蚕卵感光可以开灯照吗？</t>
   </si>
   <si>
@@ -2585,6 +2591,123 @@
       </rPr>
       <t>与其他生物一样，蚕宝宝也有杂种优势，杂交后的蚕宝宝在抗性、产丝能力等方面都有很好的表现。</t>
     </r>
+  </si>
+  <si>
+    <t>怎样除沙</t>
+  </si>
+  <si>
+    <t>小蚕期除沙次数不宜过多，一般一龄眠除一次，如蚕沙不厚最好不除，仅轻轻扩座，撒上焦糠即可。二龄起、眠各除一次，三龄起、中、眠各除一次。主要用网除法，即喂蚕前先在蚕座上撒一层焦糠或石灰粉隔沙，然后将蚕网平铺在蚕匾上，接着给叶，使蚕儿爬上网吃桑，即可进行除沙。</t>
+  </si>
+  <si>
+    <t>大蚕饲养的主要技术措施是什么</t>
+  </si>
+  <si>
+    <t>⑴改善环境抓好通风防闷。⑵搭棚遮荫，防止热空气进入蚕室。⑶蚕座疏放、低放、勤喂薄饲。⑷抓好桑园管理，保证5龄期桑叶的数量和质量，使蚕儿吃饱、吃好，防止蚕儿食下老硬叶、过嫩叶、营养不良叶和水分不足叶。</t>
+  </si>
+  <si>
+    <t>熟蚕何时上蔟</t>
+  </si>
+  <si>
+    <t>蚕儿5龄饷食后，经6～8天，食桑渐减，体色由青白色转为腊黄色，排软粪，随后停止食桑，排出大量绿色软粪，胸部透明，头抬高频频摆动寻找结茧位置，这时就要及时捉蚕或引蚕上蔟。</t>
+  </si>
+  <si>
+    <t>上蔟方法有哪几种？</t>
+  </si>
+  <si>
+    <t>上蔟方法有两种：一是人工捉蚕上蔟（也叫人工拾取法），二是自动上蔟法。人工上蔟法是人工用手将熟蚕捉放到蚕蔟上。大蚕地面育可采用自动上法，即在盛熟期，将方格蔟平放在蚕座上，待熟蚕自动爬上来，如使用“登簇促进剂”，则上蔟效果更好。</t>
+  </si>
+  <si>
+    <t>怎样做好蔟中管理？</t>
+  </si>
+  <si>
+    <t>熟蚕背光性强，排泄粪尿量大，上蔟后吐丝结茧前，要保持蔟室光线稍暗均匀，避免熟蚕局部过密，上蔟后的第二天，当大多数熟蚕已经定位营茧，要将少数未找到位置而仍在蔟上爬游的蚕捉开另行上蔟，并打开门窗，通风排湿。蔟中保护的温度在25℃左右，干湿差3～4℃。如遇低温应适当加温排湿。</t>
+  </si>
+  <si>
+    <t>何时采茧？</t>
+  </si>
+  <si>
+    <t>熟蚕上蔟吐丝以后6天左右，当蚕已化蛹，体为棕黄色时是采茧的适期。</t>
+  </si>
+  <si>
+    <t>怎样采茧？</t>
+  </si>
+  <si>
+    <t>按上蔟顺序先上先采，采时先摘除死蚕烂茧，再采好茧、次茧、同宫、薄烂等分别存放出售，不得出售混合茧。</t>
+  </si>
+  <si>
+    <t>采茧后怎样处理？</t>
+  </si>
+  <si>
+    <t>采下的鲜茧应尽快出售，防止蚕茧堆积发热。采茧最好用箩筐，以利通风换气，尽量避免用编织袋或布袋（尤其是化肥袋）装茧。</t>
+  </si>
+  <si>
+    <t>桑蚕苗期如何防治病虫害？</t>
+  </si>
+  <si>
+    <t>苗期病虫害较多，应加强防治。发现少数病株应及时拔除烧毁。喷药防治可用70%甲基托布津1000～1500倍或农用链霉素300～500PPM或粉锈宁1000倍等，防虫害可用80%敌敌畏或敌敌畏和乐果混合剂1000～1500倍液喷杀。</t>
+  </si>
+  <si>
+    <t>识别雌雄蛹的特征</t>
+  </si>
+  <si>
+    <t>最可靠的特征是腹部第八、九节：雌蚕第八、九节腹面有四个透明小点；雄蚕第九节腹面中央，有一个透明小点。不过一般而言，蚕在幼虫期的雌雄分辨的难度最大，除了高级技术员，一般蚕农往往很难分辨。</t>
+  </si>
+  <si>
+    <t>识别蚕雌雄</t>
+  </si>
+  <si>
+    <t>雌雄蛾的分别</t>
+  </si>
+  <si>
+    <t>除掉鉴别触角、腹部大小等特征外，最可靠的是鉴别雌雄蛾的外生殖器，例如雌蛾的交配孔附近有一片黑色骨板，雄蛾有成对的抱握器等，一般待雌雄蚕蛾孵化出自行交尾完毕分开后，鉴别最为简单。</t>
+  </si>
+  <si>
+    <t>一龄蚕的图片</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>lyc1.jpg,lyc2.jpg,lyc3.jpg</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>刚孵出来的蚕的图片</t>
+  </si>
+  <si>
+    <t>一龄蚕长什么样子</t>
+  </si>
+  <si>
+    <t>一龄蚕的照片</t>
+  </si>
+  <si>
+    <t>蚕蛹什么样子</t>
+  </si>
+  <si>
+    <t>cy1.jpg,cy2.jpg,cy3.jpg</t>
+  </si>
+  <si>
+    <t>蚕蛹的图片</t>
+  </si>
+  <si>
+    <t>蚕蛹的照片</t>
+  </si>
+  <si>
+    <t>蚕蛾</t>
+  </si>
+  <si>
+    <t>蚕蛾的图片</t>
+  </si>
+  <si>
+    <t>ce1.jgp,ce2.jgp,ce3.jgp</t>
+  </si>
+  <si>
+    <t>蚕蛾的长什么样子</t>
+  </si>
+  <si>
+    <t>蚕蛾是啥样子</t>
   </si>
 </sst>
 </file>
@@ -2592,8 +2715,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2636,7 +2759,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2655,9 +2778,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2671,23 +2794,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2703,6 +2818,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2711,20 +2872,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2746,31 +2893,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2785,7 +2908,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2797,7 +3004,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2809,7 +3052,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,151 +3088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2988,41 +3111,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3042,11 +3135,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3062,17 +3161,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3081,145 +3204,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3597,10 +3720,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z160"/>
+  <dimension ref="A1:Z182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75384615384615" defaultRowHeight="16.55"/>
@@ -3632,7 +3755,9 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3658,21 +3783,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3698,21 +3825,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3738,19 +3867,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3776,21 +3907,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3816,21 +3949,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3856,21 +3991,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3896,21 +4033,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3936,17 +4075,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3972,21 +4113,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4012,21 +4155,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -4052,21 +4197,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4092,19 +4239,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -4130,19 +4279,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -4168,19 +4319,21 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -4206,21 +4359,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -4246,19 +4401,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -4284,21 +4441,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -4324,21 +4483,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -4364,19 +4525,21 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -4402,21 +4565,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -4442,21 +4607,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -4482,19 +4649,21 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -4520,19 +4689,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -4558,21 +4729,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -4598,19 +4771,21 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -4636,19 +4811,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -4674,19 +4851,21 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -4712,21 +4891,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -4752,21 +4933,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -4792,21 +4975,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -4832,21 +5017,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -4872,21 +5059,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -4912,21 +5101,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4952,19 +5143,21 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4990,19 +5183,21 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -5028,19 +5223,21 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -5066,19 +5263,21 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5104,21 +5303,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -5144,19 +5345,21 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -5182,19 +5385,21 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5220,19 +5425,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -5258,21 +5465,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -5298,21 +5507,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5338,19 +5549,21 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -5376,19 +5589,21 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -5414,19 +5629,21 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -5452,21 +5669,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -5492,17 +5711,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -5528,21 +5749,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5568,21 +5791,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -5608,21 +5833,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G52" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -5648,21 +5875,23 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G53" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -5688,21 +5917,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5728,21 +5959,23 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5768,21 +6001,23 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G56" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -5808,21 +6043,23 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -5848,21 +6085,23 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G58" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5888,21 +6127,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -5928,19 +6169,21 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G60" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -5966,19 +6209,21 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G61" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -6004,21 +6249,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G62" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -6044,21 +6291,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G63" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -6084,21 +6333,23 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G64" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -6124,21 +6375,23 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G65" s="4"/>
+        <v>205</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -6164,19 +6417,21 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G66" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -6202,19 +6457,21 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -6240,21 +6497,23 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G68" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6280,21 +6539,23 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G69" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -6320,21 +6581,23 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G70" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -6360,21 +6623,23 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G71" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6400,21 +6665,23 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G72" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -6440,21 +6707,23 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -6480,21 +6749,23 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -6520,21 +6791,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G75" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -6560,21 +6833,23 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G76" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6600,21 +6875,23 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="F77" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G77" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6640,21 +6917,23 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G78" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -6680,21 +6959,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G79" s="4"/>
+        <v>241</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6720,19 +7001,21 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G80" s="4"/>
+        <v>243</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6758,19 +7041,21 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G81" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6796,19 +7081,21 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="G82" s="4"/>
+        <v>247</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6834,19 +7121,21 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G83" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6872,19 +7161,21 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G84" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6910,19 +7201,21 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G85" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -6948,19 +7241,21 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G86" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -6986,19 +7281,21 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G87" s="4"/>
+        <v>257</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -7024,19 +7321,21 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G88" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -7062,19 +7361,21 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G89" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -7100,21 +7401,23 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G90" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -7140,19 +7443,21 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G91" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -7178,19 +7483,21 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G92" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -7216,21 +7523,23 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G93" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -7256,19 +7565,21 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G94" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -7294,19 +7605,21 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G95" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -7332,19 +7645,21 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G96" s="4"/>
+        <v>280</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7370,19 +7685,21 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G97" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -7408,21 +7725,23 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G98" s="4"/>
+        <v>285</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7448,21 +7767,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G99" s="4"/>
+        <v>288</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -7488,21 +7809,23 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G100" s="4"/>
+        <v>291</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -7528,21 +7851,23 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G101" s="4"/>
+        <v>294</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
@@ -7568,21 +7893,23 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G102" s="4"/>
+        <v>297</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -7608,21 +7935,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G103" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7648,21 +7977,23 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="E104" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G104" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -7688,21 +8019,23 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G105" s="4"/>
+        <v>307</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -7728,21 +8061,23 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G106" s="4"/>
+        <v>310</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7768,21 +8103,23 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G107" s="4"/>
+        <v>312</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -7809,18 +8146,20 @@
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G108" s="4"/>
+        <v>315</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -7847,18 +8186,20 @@
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="F109" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G109" s="4"/>
+        <v>317</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -7885,18 +8226,20 @@
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G110" s="4"/>
+        <v>320</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
@@ -7923,18 +8266,20 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="G111" s="4"/>
+        <v>323</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
@@ -7961,18 +8306,20 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G112" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
@@ -7999,16 +8346,18 @@
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G113" s="4"/>
+        <v>330</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -8035,18 +8384,20 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G114" s="4"/>
+        <v>334</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -8073,16 +8424,18 @@
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G115" s="4"/>
+        <v>337</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -8109,18 +8462,20 @@
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="G116" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -8146,21 +8501,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G117" s="4"/>
+        <v>343</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -8187,18 +8544,20 @@
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="G118" s="4"/>
+        <v>345</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -8225,18 +8584,20 @@
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G119" s="4"/>
+        <v>349</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -8262,21 +8623,23 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="G120" s="4"/>
+        <v>353</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -8303,18 +8666,20 @@
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="G121" s="4"/>
+        <v>357</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -8340,21 +8705,23 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="G122" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -8380,19 +8747,21 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G123" s="4"/>
+        <v>364</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -8418,19 +8787,21 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F124" s="5"/>
-      <c r="G124" s="4"/>
+      <c r="G124" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -8456,19 +8827,21 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G125" s="4"/>
+        <v>370</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -8494,21 +8867,23 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="G126" s="4"/>
+        <v>374</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -8534,21 +8909,23 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="G127" s="4"/>
+        <v>378</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -8574,21 +8951,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="G128" s="4"/>
+        <v>382</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -8615,18 +8994,20 @@
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="G129" s="4"/>
+        <v>386</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -8652,19 +9033,21 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="G130" s="4"/>
+        <v>389</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -8690,19 +9073,21 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G131" s="4"/>
+        <v>392</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -8729,16 +9114,18 @@
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G132" s="4"/>
+        <v>395</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -8765,16 +9152,18 @@
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="G133" s="4"/>
+        <v>398</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -8800,19 +9189,21 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="G134" s="4"/>
+        <v>401</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -8838,21 +9229,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G135" s="4"/>
+        <v>404</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -8878,19 +9271,21 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G136" s="4"/>
+        <v>407</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
@@ -8916,21 +9311,23 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C137" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="E137" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="G137" s="4"/>
+        <v>410</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -8956,21 +9353,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C138" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E138" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="F138" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G138" s="4"/>
+        <v>412</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -8996,21 +9395,23 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G139" s="4"/>
+        <v>415</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -9036,21 +9437,23 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G140" s="4"/>
+        <v>419</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -9076,21 +9479,23 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="G141" s="4"/>
+        <v>422</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -9116,21 +9521,23 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="G142" s="4"/>
+        <v>426</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -9156,21 +9563,23 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G143" s="4"/>
+        <v>430</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -9196,21 +9605,23 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G144" s="4"/>
+        <v>433</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -9236,21 +9647,23 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G145" s="4"/>
+        <v>415</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -9276,21 +9689,23 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G146" s="4"/>
+        <v>436</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -9316,21 +9731,23 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="G147" s="4"/>
+        <v>439</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -9357,18 +9774,20 @@
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="G148" s="4"/>
+        <v>443</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -9394,21 +9813,23 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="G149" s="4"/>
+        <v>447</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -9434,21 +9855,23 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="G150" s="4"/>
+        <v>452</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -9474,21 +9897,23 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="G151" s="4"/>
+        <v>455</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -9514,21 +9939,23 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="G152" s="4"/>
+        <v>458</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -9554,21 +9981,23 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="G153" s="4"/>
+        <v>461</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -9594,21 +10023,23 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="G154" s="4"/>
+        <v>463</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -9634,21 +10065,23 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="G155" s="4"/>
+        <v>466</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -9674,21 +10107,23 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G156" s="4"/>
+        <v>469</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
@@ -9713,20 +10148,24 @@
       <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="C157" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E157" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F157" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="F157" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G157" s="4"/>
+      <c r="G157" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -9751,20 +10190,24 @@
       <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="C158" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="G158" s="4"/>
+        <v>475</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -9789,20 +10232,24 @@
       <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="C159" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="G159" s="4"/>
+        <v>478</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -9828,21 +10275,23 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="G160" s="4"/>
+        <v>481</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -9863,6 +10312,440 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F161" t="s">
+        <v>483</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F162" t="s">
+        <v>485</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F163" t="s">
+        <v>487</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F164" t="s">
+        <v>489</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F165" t="s">
+        <v>491</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F166" t="s">
+        <v>493</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F167" t="s">
+        <v>495</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F168" t="s">
+        <v>497</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F169" t="s">
+        <v>499</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F170" t="s">
+        <v>501</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F171" t="s">
+        <v>501</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F172" t="s">
+        <v>504</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F173" t="s">
+        <v>507</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F174" t="s">
+        <v>507</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F175" t="s">
+        <v>507</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F176" t="s">
+        <v>507</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F177" t="s">
+        <v>513</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F178" t="s">
+        <v>513</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F179" t="s">
+        <v>513</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F180" t="s">
+        <v>518</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F181" t="s">
+        <v>518</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F182" t="s">
+        <v>518</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B160">
     <extLst/>

--- a/resources/silkworm-faq.xlsx
+++ b/resources/silkworm-faq.xlsx
@@ -10,14 +10,14 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$1:$B$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$1:$B$182</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="532">
   <si>
     <t>序号</t>
   </si>
@@ -156,6 +156,9 @@
     <t>眠期是什么？</t>
   </si>
   <si>
+    <t>眠期</t>
+  </si>
+  <si>
     <t>蚕宝蜕皮时不吃不动，需要休息大约1天时间，这个时期就像是在睡觉，所以叫眠期。</t>
   </si>
   <si>
@@ -198,12 +201,18 @@
     <t>吃桑叶</t>
   </si>
   <si>
+    <t>蚁蚕</t>
+  </si>
+  <si>
     <t>嫩黄色，桑树顶端的叶子</t>
   </si>
   <si>
     <t>5龄蚕吃什么样的桑叶？</t>
   </si>
   <si>
+    <t>5龄蚕</t>
+  </si>
+  <si>
     <t>墨绿色，看起来汁水丰沛的叶子</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>化蛹</t>
   </si>
   <si>
+    <t>时间</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -242,6 +254,9 @@
     <t>化性</t>
   </si>
   <si>
+    <t>代数</t>
+  </si>
+  <si>
     <t>蚕在一年内自然发生的世代数，3代以上为多化性。</t>
   </si>
   <si>
@@ -266,15 +281,7 @@
     <t>雌蛹腹部肥大，第8腹节腹面正中线上，有一条纵线。雄蛹第8，9腹节腹面正中线的交界处有一小点。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雌蛾的诱惑腺所释放出的性信息激素是什么？</t>
-    </r>
+    <t>雌蛾的诱惑腺所释放出的性信息激素是什么？</t>
   </si>
   <si>
     <r>
@@ -288,6 +295,9 @@
     </r>
   </si>
   <si>
+    <t>雌蛾</t>
+  </si>
+  <si>
     <t>性信息激素主要是由桑蚕醇和桑蚕醛所组成。</t>
   </si>
   <si>
@@ -318,18 +328,16 @@
     <t>卵</t>
   </si>
   <si>
+    <t>死卵</t>
+  </si>
+  <si>
     <t>正常卵的卵涡为椭圆形，死卵呈三角形。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雌雄蚕的鉴别?</t>
-    </r>
+    <t>雌雄蚕的鉴别?</t>
+  </si>
+  <si>
+    <t>鉴别</t>
   </si>
   <si>
     <t>雄蚕在第9腹节的腹面前缘中央有一个椭圆形的乳白色的小点，为赫氏腺，雌蚕在蚕的尾部第8，9腹节腹面，左右对称地各有一对乳白色的小圆点，为石渡氏腺。</t>
@@ -350,6 +358,9 @@
     <t>蚕的生长发育情况?</t>
   </si>
   <si>
+    <t>发育</t>
+  </si>
+  <si>
     <t>蚕在产卵后10-12天后破茧，孵化3-4天后脱壳，经过4次蜕皮15.5-19天后成为成虫。</t>
   </si>
   <si>
@@ -359,6 +370,9 @@
     <t>运动</t>
   </si>
   <si>
+    <t>爬行</t>
+  </si>
+  <si>
     <t>四对腹足和一对尾足，胸足不参与躯体运动</t>
   </si>
   <si>
@@ -368,6 +382,9 @@
     <t>变化</t>
   </si>
   <si>
+    <t>变态</t>
+  </si>
+  <si>
     <t>变态发育，变态昆虫</t>
   </si>
   <si>
@@ -437,6 +454,9 @@
     <t>体节</t>
   </si>
   <si>
+    <t>身体</t>
+  </si>
+  <si>
     <t>蚕的身体分为头、胸、腹三部分,共十三节构成。</t>
   </si>
   <si>
@@ -458,6 +478,9 @@
     <t>蚕一生能生存多久？</t>
   </si>
   <si>
+    <t>生存</t>
+  </si>
+  <si>
     <t>蚕一生能生存41～51天</t>
   </si>
   <si>
@@ -719,9 +742,6 @@
     <t>饲料养蚕</t>
   </si>
   <si>
-    <t>眠期</t>
-  </si>
-  <si>
     <t>应该把盖子打开，里面保持干燥。因为太湿不利于蚕宝宝脱皮</t>
   </si>
   <si>
@@ -831,9 +851,6 @@
   </si>
   <si>
     <t>蚕卵是如果变成蚕宝宝的呢</t>
-  </si>
-  <si>
-    <t>蚁蚕</t>
   </si>
   <si>
     <t>蚕卵外层是坚硬的卵壳，里面是卵黄与浆膜，受精卵中的胚胎在发育过程中不断摄取营养，逐渐发育成蚁蚕，它从卵壳中爬出来，卵壳空了之后变成白色或淡黄色。　　</t>
@@ -2715,9 +2732,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -2759,6 +2776,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2767,14 +2792,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2801,24 +2818,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2834,14 +2858,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2857,7 +2903,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2865,35 +2911,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2908,7 +2925,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2920,7 +2955,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2932,163 +3105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3099,74 +3116,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3199,129 +3148,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3330,19 +3347,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3722,8 +3739,8 @@
   <sheetPr/>
   <dimension ref="A1:Z182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75384615384615" defaultRowHeight="16.55"/>
@@ -3875,7 +3892,9 @@
       <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
@@ -4080,10 +4099,14 @@
       <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>11</v>
@@ -4116,16 +4139,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>11</v>
@@ -4158,16 +4181,16 @@
         <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>11</v>
@@ -4200,16 +4223,16 @@
         <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>11</v>
@@ -4242,14 +4265,16 @@
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>11</v>
@@ -4282,14 +4307,16 @@
         <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>11</v>
@@ -4322,14 +4349,16 @@
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>11</v>
@@ -4362,16 +4391,16 @@
         <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>11</v>
@@ -4404,14 +4433,16 @@
         <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>11</v>
@@ -4444,16 +4475,16 @@
         <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>11</v>
@@ -4486,16 +4517,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>11</v>
@@ -4528,14 +4559,16 @@
         <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>11</v>
@@ -4568,16 +4601,16 @@
         <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>11</v>
@@ -4610,16 +4643,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>11</v>
@@ -4652,14 +4685,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F23" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>11</v>
@@ -4692,14 +4727,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>11</v>
@@ -4732,16 +4769,16 @@
         <v>16</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>11</v>
@@ -4774,14 +4811,16 @@
         <v>26</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>11</v>
@@ -4814,14 +4853,16 @@
         <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F27" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>11</v>
@@ -4854,14 +4895,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>11</v>
@@ -4891,19 +4934,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>11</v>
@@ -4933,19 +4976,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>11</v>
@@ -4975,19 +5018,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>11</v>
@@ -5020,16 +5063,16 @@
         <v>16</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>11</v>
@@ -5062,16 +5105,16 @@
         <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>11</v>
@@ -5104,16 +5147,16 @@
         <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>11</v>
@@ -5146,14 +5189,16 @@
         <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="F35" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>11</v>
@@ -5186,14 +5231,16 @@
         <v>26</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F36" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>11</v>
@@ -5226,14 +5273,16 @@
         <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F37" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>11</v>
@@ -5266,14 +5315,16 @@
         <v>26</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F38" s="5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>11</v>
@@ -5306,16 +5357,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>11</v>
@@ -5348,14 +5399,14 @@
         <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>11</v>
@@ -5388,14 +5439,14 @@
         <v>26</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>11</v>
@@ -5428,14 +5479,14 @@
         <v>26</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="5" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>11</v>
@@ -5465,19 +5516,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>11</v>
@@ -5507,19 +5558,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>11</v>
@@ -5549,17 +5600,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>11</v>
@@ -5589,17 +5640,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="6" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>11</v>
@@ -5632,14 +5683,14 @@
         <v>26</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>11</v>
@@ -5672,16 +5723,16 @@
         <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>11</v>
@@ -5711,15 +5762,15 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="5" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>11</v>
@@ -5752,16 +5803,16 @@
         <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>11</v>
@@ -5794,16 +5845,16 @@
         <v>7</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>11</v>
@@ -5836,16 +5887,16 @@
         <v>26</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>11</v>
@@ -5878,16 +5929,16 @@
         <v>7</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>11</v>
@@ -5920,16 +5971,16 @@
         <v>26</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>11</v>
@@ -5962,16 +6013,16 @@
         <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>11</v>
@@ -6004,16 +6055,16 @@
         <v>26</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>11</v>
@@ -6043,19 +6094,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>11</v>
@@ -6088,16 +6139,16 @@
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>11</v>
@@ -6130,16 +6181,16 @@
         <v>26</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>11</v>
@@ -6169,17 +6220,17 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="5" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>11</v>
@@ -6209,17 +6260,17 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="5" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>11</v>
@@ -6249,19 +6300,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>11</v>
@@ -6291,19 +6342,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>11</v>
@@ -6336,16 +6387,16 @@
         <v>26</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>11</v>
@@ -6375,19 +6426,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>11</v>
@@ -6420,14 +6471,14 @@
         <v>26</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>11</v>
@@ -6460,14 +6511,14 @@
         <v>26</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>11</v>
@@ -6497,19 +6548,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>11</v>
@@ -6542,16 +6593,16 @@
         <v>26</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>11</v>
@@ -6584,16 +6635,16 @@
         <v>26</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>11</v>
@@ -6626,16 +6677,16 @@
         <v>26</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>11</v>
@@ -6668,16 +6719,16 @@
         <v>26</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>11</v>
@@ -6707,19 +6758,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>11</v>
@@ -6752,16 +6803,16 @@
         <v>26</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>11</v>
@@ -6794,16 +6845,16 @@
         <v>26</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>11</v>
@@ -6836,16 +6887,16 @@
         <v>26</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>11</v>
@@ -6878,16 +6929,16 @@
         <v>32</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>11</v>
@@ -6920,16 +6971,16 @@
         <v>32</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>11</v>
@@ -6962,16 +7013,16 @@
         <v>32</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>11</v>
@@ -7004,14 +7055,14 @@
         <v>26</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="5" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>11</v>
@@ -7044,14 +7095,14 @@
         <v>26</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="5" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>11</v>
@@ -7084,14 +7135,14 @@
         <v>26</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="5" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>11</v>
@@ -7124,14 +7175,14 @@
         <v>26</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="5" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>11</v>
@@ -7164,14 +7215,14 @@
         <v>26</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>11</v>
@@ -7204,14 +7255,14 @@
         <v>32</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="5" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>11</v>
@@ -7244,14 +7295,14 @@
         <v>26</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>11</v>
@@ -7284,14 +7335,14 @@
         <v>32</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>11</v>
@@ -7324,14 +7375,14 @@
         <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="5" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>11</v>
@@ -7364,14 +7415,14 @@
         <v>26</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="5" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>11</v>
@@ -7404,16 +7455,16 @@
         <v>32</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>11</v>
@@ -7443,17 +7494,17 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="5" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>11</v>
@@ -7483,17 +7534,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>11</v>
@@ -7523,19 +7574,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>11</v>
@@ -7568,14 +7619,14 @@
         <v>26</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>11</v>
@@ -7608,14 +7659,14 @@
         <v>26</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>11</v>
@@ -7645,17 +7696,17 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>11</v>
@@ -7685,17 +7736,17 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>11</v>
@@ -7725,19 +7776,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>11</v>
@@ -7767,19 +7818,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>11</v>
@@ -7809,19 +7860,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>11</v>
@@ -7851,19 +7902,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>11</v>
@@ -7893,19 +7944,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>11</v>
@@ -7935,19 +7986,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>11</v>
@@ -7977,19 +8028,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>11</v>
@@ -8019,19 +8070,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>11</v>
@@ -8061,19 +8112,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>11</v>
@@ -8103,19 +8154,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>11</v>
@@ -8146,16 +8197,16 @@
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>11</v>
@@ -8186,16 +8237,16 @@
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="5" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>11</v>
@@ -8226,16 +8277,16 @@
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="5" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>11</v>
@@ -8266,16 +8317,16 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="5" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>11</v>
@@ -8306,16 +8357,16 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="5" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>11</v>
@@ -8346,14 +8397,14 @@
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="5" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>11</v>
@@ -8384,16 +8435,16 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="5" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>11</v>
@@ -8424,14 +8475,14 @@
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="5" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>11</v>
@@ -8462,16 +8513,16 @@
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="5" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>11</v>
@@ -8501,19 +8552,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>11</v>
@@ -8544,16 +8595,16 @@
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="5" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>11</v>
@@ -8584,16 +8635,16 @@
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="5" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>11</v>
@@ -8626,16 +8677,16 @@
         <v>32</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>11</v>
@@ -8666,16 +8717,16 @@
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="6" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>11</v>
@@ -8708,16 +8759,16 @@
         <v>26</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>11</v>
@@ -8750,14 +8801,14 @@
         <v>26</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="6" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>11</v>
@@ -8790,13 +8841,13 @@
         <v>26</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="4" t="s">
@@ -8830,14 +8881,14 @@
         <v>26</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="6" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>11</v>
@@ -8870,16 +8921,16 @@
         <v>26</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>11</v>
@@ -8912,16 +8963,16 @@
         <v>26</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>11</v>
@@ -8954,16 +9005,16 @@
         <v>26</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>11</v>
@@ -8994,16 +9045,16 @@
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="6" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>11</v>
@@ -9036,14 +9087,14 @@
         <v>26</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="6" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>11</v>
@@ -9076,14 +9127,14 @@
         <v>26</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="6" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>11</v>
@@ -9114,14 +9165,14 @@
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="6" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="6" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>11</v>
@@ -9152,14 +9203,14 @@
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="6" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="6" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>11</v>
@@ -9192,14 +9243,14 @@
         <v>26</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="6" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>11</v>
@@ -9229,19 +9280,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>11</v>
@@ -9271,17 +9322,17 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="6" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>11</v>
@@ -9311,19 +9362,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>11</v>
@@ -9353,19 +9404,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>11</v>
@@ -9395,19 +9446,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>11</v>
@@ -9440,16 +9491,16 @@
         <v>26</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>11</v>
@@ -9482,16 +9533,16 @@
         <v>26</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>11</v>
@@ -9524,16 +9575,16 @@
         <v>26</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>11</v>
@@ -9566,16 +9617,16 @@
         <v>26</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>11</v>
@@ -9608,16 +9659,16 @@
         <v>26</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>11</v>
@@ -9647,19 +9698,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>11</v>
@@ -9689,19 +9740,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>11</v>
@@ -9734,16 +9785,16 @@
         <v>26</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>11</v>
@@ -9774,16 +9825,16 @@
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="6" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>11</v>
@@ -9813,19 +9864,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>11</v>
@@ -9855,19 +9906,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>11</v>
@@ -9897,19 +9948,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>11</v>
@@ -9939,19 +9990,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>11</v>
@@ -9981,19 +10032,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>11</v>
@@ -10023,19 +10074,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C154" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="F154" s="6" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>11</v>
@@ -10065,19 +10116,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>11</v>
@@ -10110,16 +10161,16 @@
         <v>26</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>11</v>
@@ -10149,19 +10200,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>11</v>
@@ -10191,19 +10242,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>11</v>
@@ -10233,19 +10284,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>11</v>
@@ -10278,16 +10329,16 @@
         <v>26</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>11</v>
@@ -10317,13 +10368,17 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>482</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E161" s="4"/>
       <c r="F161" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>11</v>
@@ -10334,13 +10389,17 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>484</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E162" s="4"/>
       <c r="F162" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>11</v>
@@ -10351,13 +10410,17 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>486</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E163" s="4"/>
       <c r="F163" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>11</v>
@@ -10368,13 +10431,17 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>488</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E164" s="4"/>
       <c r="F164" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>11</v>
@@ -10385,13 +10452,17 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>490</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E165" s="4"/>
       <c r="F165" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>11</v>
@@ -10402,13 +10473,17 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>492</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E166" s="4"/>
       <c r="F166" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>11</v>
@@ -10419,13 +10494,17 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>494</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E167" s="4"/>
       <c r="F167" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>11</v>
@@ -10436,13 +10515,17 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>496</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E168" s="4"/>
       <c r="F168" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>11</v>
@@ -10453,13 +10536,17 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>498</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E169" s="4"/>
       <c r="F169" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>11</v>
@@ -10473,10 +10560,14 @@
         <v>26</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>500</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E170" s="4"/>
       <c r="F170" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>11</v>
@@ -10490,10 +10581,14 @@
         <v>26</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>502</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E171" s="4"/>
       <c r="F171" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>11</v>
@@ -10507,10 +10602,14 @@
         <v>26</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>503</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E172" s="4"/>
       <c r="F172" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>11</v>
@@ -10521,22 +10620,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F173" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -10544,22 +10643,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F174" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -10567,22 +10666,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F175" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -10590,22 +10689,22 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F176" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -10613,22 +10712,22 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F177" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -10636,22 +10735,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F178" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -10659,22 +10758,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F179" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -10682,22 +10781,22 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E180" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="D180" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="F180" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -10705,22 +10804,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F181" t="s">
+        <v>529</v>
+      </c>
+      <c r="G181" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F181" t="s">
-        <v>518</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -10728,26 +10827,26 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F182" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B160">
+  <autoFilter ref="B1:B182">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/silkworm-faq.xlsx
+++ b/resources/silkworm-faq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26841" windowHeight="11592"/>
+    <workbookView windowWidth="19872" windowHeight="7588"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2718,7 +2718,7 @@
     <t>蚕蛾的图片</t>
   </si>
   <si>
-    <t>ce1.jgp,ce2.jgp,ce3.jgp</t>
+    <t>ce1.jpg,ce2.jpg,ce3.jpg</t>
   </si>
   <si>
     <t>蚕蛾的长什么样子</t>
@@ -2733,8 +2733,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -2780,21 +2780,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2804,7 +2789,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2818,8 +2810,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2833,10 +2833,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2848,9 +2849,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2858,29 +2858,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2901,6 +2879,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2910,7 +2895,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2925,175 +2925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3109,6 +2941,174 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3119,17 +3119,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3145,21 +3139,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3190,9 +3169,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3206,13 +3187,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3221,142 +3221,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3739,8 +3739,8 @@
   <sheetPr/>
   <dimension ref="A1:Z182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" topLeftCell="D165" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75384615384615" defaultRowHeight="16.55"/>

--- a/resources/silkworm-faq.xlsx
+++ b/resources/silkworm-faq.xlsx
@@ -2685,7 +2685,7 @@
     <t>图片</t>
   </si>
   <si>
-    <t>lyc1.jpg,lyc2.jpg,lyc3.jpg</t>
+    <t>ylc1.jpg,ylc2.jpg,ylc3.jpg</t>
   </si>
   <si>
     <t>image</t>
@@ -2765,14 +2765,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2780,9 +2772,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2795,18 +2786,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2819,14 +2834,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2834,15 +2841,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2864,6 +2863,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -2871,9 +2894,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2888,29 +2910,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2925,19 +2925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2949,49 +2973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3009,13 +3003,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3027,13 +3069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,61 +3087,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3119,11 +3119,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3139,15 +3172,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3178,15 +3202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3201,168 +3216,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3740,7 +3740,7 @@
   <dimension ref="A1:Z182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D165" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75384615384615" defaultRowHeight="16.55"/>
